--- a/team_specific_matrix/Queens (NC)_A.xlsx
+++ b/team_specific_matrix/Queens (NC)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.565625</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.14375</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.103125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.7513513513513513</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.2181818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.03686635944700461</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2764976958525346</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3456221198156682</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.135</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.195</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.09484536082474226</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.0288659793814433</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05567010309278351</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01649484536082474</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1979381443298969</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.05238095238095238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.2238095238095238</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3857142857142857</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.1064610866372981</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.02422907488986784</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.06387665198237885</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.0183553597650514</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.2518355359765052</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.09985315712187959</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.3208516886930984</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1703470031545741</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.08832807570977919</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2018927444794953</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5236593059936908</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.01577287066246057</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.6726190476190477</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1460176991150443</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.07079646017699115</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3185840707964602</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.04424778761061947</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1194690265486726</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2433628318584071</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1607142857142857</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3705357142857143</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1116071428571429</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04017857142857143</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.1964285714285714</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1057347670250896</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4014336917562724</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01971326164874552</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1272401433691756</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08260869565217391</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.108695652173913</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01453710788064269</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2019892884468248</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.07651109410864575</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.3902065799540934</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1101759755164499</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02371843917368018</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0007651109410864575</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.05432287681713849</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1277735271614384</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Queens (NC)_A.xlsx
+++ b/team_specific_matrix/Queens (NC)_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1834319526627219</v>
       </c>
       <c r="C2">
-        <v>0.565625</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.14375</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.103125</v>
+        <v>0.09763313609467456</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02162162162162162</v>
+        <v>0.02</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01081081081081081</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7513513513513513</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2162162162162162</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7818181818181819</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2181818181818182</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03686635944700461</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08294930875576037</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2764976958525346</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0184331797235023</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1612903225806452</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="R6">
-        <v>0.07834101382488479</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="S6">
-        <v>0.3456221198156682</v>
+        <v>0.3375527426160337</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.135</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.025</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="E7">
-        <v>0.005</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.095</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.025</v>
+        <v>0.02262443438914027</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.195</v>
+        <v>0.1900452488687783</v>
       </c>
       <c r="R7">
-        <v>0.08</v>
+        <v>0.08144796380090498</v>
       </c>
       <c r="S7">
-        <v>0.39</v>
+        <v>0.4072398190045249</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09484536082474226</v>
+        <v>0.09607843137254903</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0288659793814433</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05567010309278351</v>
+        <v>0.05490196078431372</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1030927835051546</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01649484536082474</v>
+        <v>0.01568627450980392</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1979381443298969</v>
+        <v>0.1921568627450981</v>
       </c>
       <c r="R8">
-        <v>0.1030927835051546</v>
+        <v>0.1098039215686274</v>
       </c>
       <c r="S8">
-        <v>0.4</v>
+        <v>0.396078431372549</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1333333333333333</v>
+        <v>0.1293103448275862</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01428571428571429</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05238095238095238</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01904761904761905</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2238095238095238</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="R9">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="S9">
-        <v>0.3857142857142857</v>
+        <v>0.3879310344827586</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1064610866372981</v>
+        <v>0.1042524005486968</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02422907488986784</v>
+        <v>0.02400548696844993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06387665198237885</v>
+        <v>0.06721536351165981</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1145374449339207</v>
+        <v>0.1131687242798354</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0183553597650514</v>
+        <v>0.01783264746227709</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2518355359765052</v>
+        <v>0.2517146776406036</v>
       </c>
       <c r="R10">
-        <v>0.09985315712187959</v>
+        <v>0.1008230452674897</v>
       </c>
       <c r="S10">
-        <v>0.3208516886930984</v>
+        <v>0.3209876543209876</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1703470031545741</v>
+        <v>0.1776504297994269</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08832807570977919</v>
+        <v>0.08882521489971347</v>
       </c>
       <c r="K11">
-        <v>0.2018927444794953</v>
+        <v>0.2120343839541547</v>
       </c>
       <c r="L11">
-        <v>0.5236593059936908</v>
+        <v>0.5071633237822349</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01577287066246057</v>
+        <v>0.01432664756446991</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6726190476190477</v>
+        <v>0.6815642458100558</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2619047619047619</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="K12">
-        <v>0.0119047619047619</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="L12">
-        <v>0.005952380952380952</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04761904761904762</v>
+        <v>0.0446927374301676</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7647058823529411</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.196078431372549</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0392156862745098</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03097345132743363</v>
+        <v>0.02904564315352697</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1460176991150443</v>
+        <v>0.1410788381742739</v>
       </c>
       <c r="I15">
-        <v>0.07079646017699115</v>
+        <v>0.07468879668049792</v>
       </c>
       <c r="J15">
-        <v>0.3185840707964602</v>
+        <v>0.3319502074688797</v>
       </c>
       <c r="K15">
-        <v>0.04424778761061947</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02654867256637168</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1194690265486726</v>
+        <v>0.1161825726141079</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2433628318584071</v>
+        <v>0.2365145228215768</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01339285714285714</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1607142857142857</v>
+        <v>0.160337552742616</v>
       </c>
       <c r="I16">
-        <v>0.08928571428571429</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="J16">
-        <v>0.3705357142857143</v>
+        <v>0.379746835443038</v>
       </c>
       <c r="K16">
-        <v>0.1116071428571429</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04017857142857143</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1964285714285714</v>
+        <v>0.189873417721519</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01612903225806452</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1827956989247312</v>
+        <v>0.1775544388609715</v>
       </c>
       <c r="I17">
-        <v>0.1057347670250896</v>
+        <v>0.1122278056951424</v>
       </c>
       <c r="J17">
-        <v>0.4014336917562724</v>
+        <v>0.3953098827470687</v>
       </c>
       <c r="K17">
-        <v>0.08960573476702509</v>
+        <v>0.09380234505862646</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01971326164874552</v>
+        <v>0.01842546063651591</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05734767025089606</v>
+        <v>0.05862646566164154</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1272401433691756</v>
+        <v>0.1289782244556114</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.08260869565217391</v>
+        <v>0.076</v>
       </c>
       <c r="J18">
-        <v>0.4347826086956522</v>
+        <v>0.444</v>
       </c>
       <c r="K18">
-        <v>0.08260869565217391</v>
+        <v>0.096</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008695652173913044</v>
+        <v>0.012</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06521739130434782</v>
+        <v>0.064</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.108695652173913</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01453710788064269</v>
+        <v>0.01506456241032999</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2019892884468248</v>
+        <v>0.2022955523672884</v>
       </c>
       <c r="I19">
-        <v>0.07651109410864575</v>
+        <v>0.07962697274031563</v>
       </c>
       <c r="J19">
-        <v>0.3902065799540934</v>
+        <v>0.3880918220946915</v>
       </c>
       <c r="K19">
-        <v>0.1101759755164499</v>
+        <v>0.1097560975609756</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02371843917368018</v>
+        <v>0.02510760401721664</v>
       </c>
       <c r="N19">
-        <v>0.0007651109410864575</v>
+        <v>0.0007173601147776184</v>
       </c>
       <c r="O19">
-        <v>0.05432287681713849</v>
+        <v>0.054519368723099</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1277735271614384</v>
+        <v>0.1248206599713056</v>
       </c>
     </row>
   </sheetData>
